--- a/demo_data/A466.302-2024.xlsx
+++ b/demo_data/A466.302-2024.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juka4948\Documents\Jeff Riots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemi0016\Desktop\Articles\2022-Sweden-riots\demo_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E757AB-8EE0-49FD-87EE-03A89A084463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524B0CF-8BB7-425D-A0D9-20A63AAB2064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="25680" windowHeight="15435" xr2:uid="{6A06F7B0-0E6A-43A2-BBFC-208EB9DF8D4D}"/>
+    <workbookView xWindow="2352" yWindow="2568" windowWidth="28692" windowHeight="10680" activeTab="1" xr2:uid="{6A06F7B0-0E6A-43A2-BBFC-208EB9DF8D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>Status</t>
   </si>
@@ -238,12 +239,33 @@
   </si>
   <si>
     <t>coord2</t>
+  </si>
+  <si>
+    <t>unit of time</t>
+  </si>
+  <si>
+    <t>Permit translated</t>
+  </si>
+  <si>
+    <t>Moved</t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
+  <si>
+    <t>Granted</t>
+  </si>
+  <si>
+    <t>Event Height and direction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,6 +326,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,10 +345,1641 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Timeline and status of permit applications for Quran burnings</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in Sweden 2022</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{658A5720-A37E-4460-BDEE-BDAB2EB96244}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E1373C8A-D855-4A23-BAD4-A9981657CEA5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{91421D2A-50A0-41BF-89E3-63F120FD805F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D82B9FDC-D414-4170-8123-9F389C3E5322}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{339401D4-9363-464C-9AE2-D2B2C8F012C7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B84844F1-D416-4F58-9D96-BF5F741F5F39}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3741883D-A3E6-4059-A7DB-6F5B70C8D530}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BB70095D-616D-4EBF-9526-B7D132CA2E0E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{56E77659-9DCD-49EA-999A-9129DED28A13}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BEEE0F79-965B-47BD-BE22-5E162FEC3E56}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0D1BACED-4B67-4598-BFC7-FE7607CA8981}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4E9FB12B-D494-4DFD-B3AB-E117193F4D80}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6AB1CDEE-610B-4BCC-B64D-53D788701440}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9ABB12E6-3C36-4E3D-A97D-50A7A520AEFD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AF0EFF82-318B-4D52-80D8-B6491832B5DE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{51AE0187-86CF-4405-99DD-57B941977813}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{294FC25D-C97D-4999-9786-C0F089DC515E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>44618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$2:$B$18</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="17"/>
+                  <c:pt idx="0">
+                    <c:v>Moved</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Denied</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Denied</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Granted</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Granted</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Moved</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Moved</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Moved</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Moved</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Granted</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Granted</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Granted</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Granted</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Granted</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Denied</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Denied</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Moved</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62C9-4C3C-BFF4-F1EB96A7488C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="789370672"/>
+        <c:axId val="789377872"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="789370672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789377872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="789377872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="789370672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CBCCA5-5940-0222-4A13-8429D208560A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +2017,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +2123,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +2265,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,20 +2275,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05774845-F7D2-449E-B482-CF3B27C792DB}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>65</v>
@@ -654,7 +2309,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2022</v>
       </c>
@@ -665,7 +2320,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5">
         <v>1</v>
@@ -686,7 +2341,7 @@
         <v>15.198472959838799</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5">
         <v>2</v>
@@ -707,7 +2362,7 @@
         <v>18.054583556811099</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>3</v>
@@ -728,7 +2383,7 @@
         <v>13.0476677383826</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -749,7 +2404,7 @@
         <v>14.146818580204201</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>5</v>
@@ -770,7 +2425,7 @@
         <v>12.8515260639254</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>6</v>
@@ -791,7 +2446,7 @@
         <v>16.212672607115199</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>7</v>
@@ -812,7 +2467,7 @@
         <v>15.1975045747811</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>8</v>
@@ -833,7 +2488,7 @@
         <v>15.584136935355099</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>9</v>
@@ -854,7 +2509,7 @@
         <v>14.797496678133999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>10</v>
@@ -875,7 +2530,7 @@
         <v>12.8516010501852</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>11</v>
@@ -896,7 +2551,7 @@
         <v>13.0464304164416</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>12</v>
@@ -917,7 +2572,7 @@
         <v>13.021653766982601</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>13</v>
@@ -938,7 +2593,7 @@
         <v>15.580328449847901</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <v>14</v>
@@ -959,7 +2614,7 @@
         <v>16.2127205448745</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5">
         <v>15</v>
@@ -980,7 +2635,7 @@
         <v>11.913044501063601</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5">
         <v>16</v>
@@ -1001,7 +2656,7 @@
         <v>12.0202924190099</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5">
         <v>17</v>
@@ -1022,7 +2677,7 @@
         <v>12.0512303639235</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2023</v>
       </c>
@@ -1031,7 +2686,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>44947</v>
       </c>
@@ -1042,7 +2697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>44966</v>
       </c>
@@ -1053,7 +2708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>44970</v>
       </c>
@@ -1064,7 +2719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>45185</v>
       </c>
@@ -1075,7 +2730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>45105</v>
       </c>
@@ -1086,7 +2741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>45119</v>
       </c>
@@ -1097,7 +2752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>45141</v>
       </c>
@@ -1108,7 +2763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>45138</v>
       </c>
@@ -1119,7 +2774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" s="3">
         <v>45127</v>
       </c>
@@ -1130,7 +2785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" s="3">
         <v>45128</v>
       </c>
@@ -1141,7 +2796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="3">
         <v>45136</v>
       </c>
@@ -1152,7 +2807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <v>45148</v>
       </c>
@@ -1163,7 +2818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
         <v>45148</v>
       </c>
@@ -1174,7 +2829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" s="3">
         <v>45141</v>
       </c>
@@ -1185,7 +2840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +2851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" s="3">
         <v>45176</v>
       </c>
@@ -1207,7 +2862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" s="3">
         <v>45157</v>
       </c>
@@ -1218,7 +2873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" s="3">
         <v>45152</v>
       </c>
@@ -1229,7 +2884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" s="3">
         <v>45156</v>
       </c>
@@ -1240,7 +2895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" s="3">
         <v>45298</v>
       </c>
@@ -1251,7 +2906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" s="3">
         <v>45185</v>
       </c>
@@ -1262,7 +2917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" s="3">
         <v>45164</v>
       </c>
@@ -1273,7 +2928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" s="3">
         <v>45162</v>
       </c>
@@ -1284,7 +2939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" s="3">
         <v>45172</v>
       </c>
@@ -1295,7 +2950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" s="3">
         <v>45184</v>
       </c>
@@ -1306,7 +2961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48" s="3">
         <v>45187</v>
       </c>
@@ -1317,7 +2972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="3">
         <v>45169</v>
       </c>
@@ -1328,7 +2983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="3">
         <v>45168</v>
       </c>
@@ -1339,7 +2994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="3">
         <v>45166</v>
       </c>
@@ -1350,7 +3005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" s="3">
         <v>45165</v>
       </c>
@@ -1361,7 +3016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" s="3">
         <v>45164</v>
       </c>
@@ -1372,7 +3027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" s="3">
         <v>45163</v>
       </c>
@@ -1383,7 +3038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="3">
         <v>45174</v>
       </c>
@@ -1394,7 +3049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" s="3">
         <v>45162</v>
       </c>
@@ -1405,7 +3060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" s="3">
         <v>45116</v>
       </c>
@@ -1416,7 +3071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58" s="3">
         <v>45191</v>
       </c>
@@ -1427,7 +3082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" s="3">
         <v>45184</v>
       </c>
@@ -1438,7 +3093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" s="3">
         <v>45192</v>
       </c>
@@ -1449,7 +3104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" s="3">
         <v>45199</v>
       </c>
@@ -1460,7 +3115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" s="3">
         <v>45211</v>
       </c>
@@ -1471,7 +3126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63" s="3">
         <v>45215</v>
       </c>
@@ -1482,7 +3137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" s="3">
         <v>45219</v>
       </c>
@@ -1493,7 +3148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65" s="3">
         <v>45220</v>
       </c>
@@ -1507,5 +3162,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K000000 Begränsad delning&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB99A06F-4C49-418B-A436-D24E72731624}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>44618</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>44618</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>44618</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>44626</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>44626</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>44638</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>44638</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>44654</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>44654</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>44665</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>44665</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>44666</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>44667</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>44667</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>44668</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>44682</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>44712</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K000000 Begränsad delning&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f13b610e-d3b5-490f-b165-988100e8232a}" enabled="1" method="Standard" siteId="{5a4ba6f9-f531-4f32-9467-398f19e69de4}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>